--- a/REGULAR/MAYORS OFFICE/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/MAYORS OFFICE/PERENA, RUBILINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="342">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1057,6 +1057,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>12/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1942,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1985,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2049,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2109,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2175,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2238,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2336,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2395,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2460,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2503,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2578,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,7 +2764,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,7 +2830,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +2888,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2954,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3010,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3085,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3128,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3191,7 +3194,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3250,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3348,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,7 +3411,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3857,7 +3860,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4215" topLeftCell="A487" activePane="bottomLeft"/>
       <selection activeCell="Q8" sqref="Q8"/>
-      <selection pane="bottomLeft" activeCell="I503" sqref="I503"/>
+      <selection pane="bottomLeft" activeCell="E506" sqref="E506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,7 +4021,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>73.327000000000055</v>
+        <v>74.577000000000055</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4028,7 +4031,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>202.95799999999997</v>
+        <v>202.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15368,13 +15371,15 @@
       <c r="B503" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C503" s="13"/>
+      <c r="C503" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D503" s="39"/>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
-      <c r="G503" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G503" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H503" s="39">
         <v>1</v>
@@ -15405,7 +15410,9 @@
       <c r="A505" s="40">
         <v>45292</v>
       </c>
-      <c r="B505" s="20"/>
+      <c r="B505" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C505" s="13"/>
       <c r="D505" s="39"/>
       <c r="E505" s="9"/>
@@ -15414,10 +15421,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H505" s="39"/>
+      <c r="H505" s="39">
+        <v>2</v>
+      </c>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20"/>
+      <c r="K505" s="20" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">

--- a/REGULAR/MAYORS OFFICE/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/MAYORS OFFICE/PERENA, RUBILINDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="342">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1942,7 +1942,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1985,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2049,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2109,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2175,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2238,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2336,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2395,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2460,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2503,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2578,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2764,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,7 +2830,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2888,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2954,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3085,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +3128,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3194,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3250,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +3348,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,7 +3411,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3477,7 +3477,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K604" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K605" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
@@ -3855,12 +3855,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K604"/>
+  <dimension ref="A2:K605"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4215" topLeftCell="A487" activePane="bottomLeft"/>
+      <pane ySplit="4215" topLeftCell="A490" activePane="bottomLeft"/>
       <selection activeCell="Q8" sqref="Q8"/>
-      <selection pane="bottomLeft" activeCell="E506" sqref="E506"/>
+      <selection pane="bottomLeft" activeCell="F507" sqref="F507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,7 +4031,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>202.20799999999997</v>
+        <v>201.20799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15431,10 +15431,10 @@
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B506" s="20"/>
+      <c r="A506" s="40"/>
+      <c r="B506" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C506" s="13"/>
       <c r="D506" s="39"/>
       <c r="E506" s="9"/>
@@ -15443,14 +15443,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H506" s="39"/>
+      <c r="H506" s="39">
+        <v>1</v>
+      </c>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="20"/>
+      <c r="K506" s="48">
+        <v>45299</v>
+      </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -15468,7 +15472,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -15486,7 +15490,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15504,7 +15508,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15522,7 +15526,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15540,7 +15544,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15558,7 +15562,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15576,7 +15580,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15594,7 +15598,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15612,7 +15616,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15630,7 +15634,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15648,7 +15652,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15666,7 +15670,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15684,7 +15688,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15702,7 +15706,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15720,7 +15724,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15738,7 +15742,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15756,7 +15760,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15774,7 +15778,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15792,7 +15796,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15810,7 +15814,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15828,7 +15832,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15846,7 +15850,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15864,7 +15868,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15882,7 +15886,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15900,7 +15904,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15918,7 +15922,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15936,7 +15940,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15954,7 +15958,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15972,7 +15976,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15990,7 +15994,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -16008,7 +16012,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -16026,7 +16030,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -16044,7 +16048,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -16062,7 +16066,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -16080,7 +16084,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16098,7 +16102,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16116,7 +16120,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16134,7 +16138,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16152,7 +16156,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16170,7 +16174,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16188,7 +16192,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16206,7 +16210,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16224,7 +16228,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16242,7 +16246,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16260,7 +16264,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16278,7 +16282,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16296,7 +16300,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16314,7 +16318,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16332,7 +16336,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16350,7 +16354,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16368,7 +16372,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16386,7 +16390,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16404,7 +16408,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16422,7 +16426,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16440,7 +16444,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16458,7 +16462,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16476,7 +16480,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16494,7 +16498,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16512,7 +16516,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16530,7 +16534,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16548,7 +16552,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16566,7 +16570,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16584,7 +16588,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16602,7 +16606,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16620,7 +16624,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16638,7 +16642,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16656,7 +16660,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16674,7 +16678,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16692,7 +16696,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16709,7 +16713,9 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40"/>
+      <c r="A577" s="40">
+        <v>47453</v>
+      </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
       <c r="D577" s="39"/>
@@ -17141,20 +17147,36 @@
       <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="52"/>
-      <c r="B604" s="15"/>
-      <c r="C604" s="41"/>
-      <c r="D604" s="42"/>
+      <c r="A604" s="40"/>
+      <c r="B604" s="20"/>
+      <c r="C604" s="13"/>
+      <c r="D604" s="39"/>
       <c r="E604" s="9"/>
-      <c r="F604" s="15"/>
-      <c r="G604" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H604" s="42"/>
+      <c r="F604" s="20"/>
+      <c r="G604" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H604" s="39"/>
       <c r="I604" s="9"/>
-      <c r="J604" s="12"/>
-      <c r="K604" s="15"/>
+      <c r="J604" s="11"/>
+      <c r="K604" s="20"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" s="52"/>
+      <c r="B605" s="15"/>
+      <c r="C605" s="41"/>
+      <c r="D605" s="42"/>
+      <c r="E605" s="9"/>
+      <c r="F605" s="15"/>
+      <c r="G605" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H605" s="42"/>
+      <c r="I605" s="9"/>
+      <c r="J605" s="12"/>
+      <c r="K605" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MAYORS OFFICE/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/MAYORS OFFICE/PERENA, RUBILINDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F71DC4-C084-4E7E-8343-7EFB9683127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1065,7 +1066,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1942,7 +1943,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1986,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2050,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2110,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2176,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2239,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2337,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2396,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2461,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2504,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2579,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2765,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,7 +2831,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2889,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2955,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3011,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3086,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +3129,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3195,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3251,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +3349,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,7 +3412,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3461,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3477,25 +3478,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K605" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K605" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="19"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="18"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="16"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="13">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3507,13 +3508,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS" dataDxfId="6"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3522,14 +3523,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3833,7 +3834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3843,7 +3844,7 @@
       <selection activeCell="G3" activeCellId="1" sqref="G3 G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3851,34 +3852,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K605"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4215" topLeftCell="A490" activePane="bottomLeft"/>
+      <pane ySplit="4212" topLeftCell="A478" activePane="bottomLeft"/>
       <selection activeCell="Q8" sqref="Q8"/>
-      <selection pane="bottomLeft" activeCell="F507" sqref="F507"/>
+      <selection pane="bottomLeft" activeCell="A480" sqref="A480:XFD480"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3899,7 +3900,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3917,7 +3918,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3939,7 +3940,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3947,7 +3948,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3960,7 +3961,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3977,7 +3978,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4021,7 +4022,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>74.577000000000055</v>
+        <v>75.827000000000055</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4031,12 +4032,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>201.20799999999997</v>
+        <v>202.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
@@ -4058,7 +4059,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35619</v>
       </c>
@@ -4078,7 +4079,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35643</v>
       </c>
@@ -4098,7 +4099,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35674</v>
       </c>
@@ -4118,7 +4119,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35704</v>
       </c>
@@ -4138,7 +4139,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35735</v>
       </c>
@@ -4158,7 +4159,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35765</v>
       </c>
@@ -4178,7 +4179,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>43</v>
       </c>
@@ -4196,7 +4197,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>35796</v>
       </c>
@@ -4220,7 +4221,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35827</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>35832</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -4268,7 +4269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>48</v>
@@ -4288,7 +4289,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f>EDATE(A19,1)</f>
         <v>35855</v>
@@ -4315,7 +4316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" ref="A23:A124" si="0">EDATE(A22,1)</f>
         <v>35886</v>
@@ -4336,7 +4337,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4363,7 +4364,7 @@
         <v>35940</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
@@ -4385,7 +4386,7 @@
         <v>35930</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -4405,7 +4406,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f>EDATE(A24,1)</f>
         <v>35947</v>
@@ -4430,7 +4431,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -4457,7 +4458,7 @@
         <v>35982</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4484,7 +4485,7 @@
         <v>36024</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -4504,7 +4505,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>36039</v>
@@ -4531,7 +4532,7 @@
         <v>36062</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>55</v>
@@ -4551,7 +4552,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36069</v>
@@ -4578,7 +4579,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>141</v>
@@ -4598,7 +4599,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>36100</v>
@@ -4623,7 +4624,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -4650,7 +4651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>61</v>
@@ -4672,7 +4673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>63</v>
@@ -4692,7 +4693,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>64</v>
       </c>
@@ -4710,7 +4711,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A36,1)</f>
         <v>36161</v>
@@ -4735,7 +4736,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -4762,7 +4763,7 @@
         <v>36210</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>66</v>
@@ -4784,7 +4785,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A41,1)</f>
         <v>36220</v>
@@ -4809,7 +4810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -4831,7 +4832,7 @@
         <v>36244</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>45</v>
@@ -4853,7 +4854,7 @@
         <v>36248</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>70</v>
@@ -4873,7 +4874,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f>EDATE(A43,1)</f>
         <v>36251</v>
@@ -4898,7 +4899,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -4925,7 +4926,7 @@
         <v>36283</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -4947,7 +4948,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>45</v>
@@ -4969,7 +4970,7 @@
         <v>36310</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>52</v>
@@ -4989,7 +4990,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A48,1)</f>
         <v>36312</v>
@@ -5014,7 +5015,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5041,7 +5042,7 @@
         <v>36364</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5068,7 +5069,7 @@
         <v>36403</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5093,7 +5094,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5114,7 +5115,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5139,7 +5140,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5166,7 +5167,7 @@
         <v>36501</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>74</v>
@@ -5188,7 +5189,7 @@
         <v>36516</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>75</v>
@@ -5208,7 +5209,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="48"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>76</v>
       </c>
@@ -5226,7 +5227,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f>EDATE(A58,1)</f>
         <v>36526</v>
@@ -5253,7 +5254,7 @@
         <v>36538</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>53</v>
@@ -5273,7 +5274,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="48"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36557</v>
@@ -5300,7 +5301,7 @@
         <v>36564</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>77</v>
@@ -5322,7 +5323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>65</v>
@@ -5342,7 +5343,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="48"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>36586</v>
@@ -5367,7 +5368,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A67,1)</f>
         <v>36617</v>
@@ -5392,7 +5393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>77</v>
@@ -5414,7 +5415,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>80</v>
@@ -5434,7 +5435,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A68,1)</f>
         <v>36647</v>
@@ -5461,7 +5462,7 @@
         <v>36676</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>81</v>
@@ -5481,7 +5482,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A71,1)</f>
         <v>36678</v>
@@ -5508,7 +5509,7 @@
         <v>36704</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>83</v>
@@ -5528,7 +5529,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="48"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>36708</v>
@@ -5549,7 +5550,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A75,1)</f>
         <v>36739</v>
@@ -5576,7 +5577,7 @@
         <v>36746</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>84</v>
@@ -5598,7 +5599,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>36770</v>
@@ -5625,7 +5626,7 @@
         <v>36798</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>86</v>
@@ -5645,7 +5646,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="48"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36800</v>
@@ -5666,7 +5667,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -5691,7 +5692,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f>EDATE(A81,1)</f>
         <v>36861</v>
@@ -5716,7 +5717,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="49" t="s">
         <v>45</v>
@@ -5738,7 +5739,7 @@
         <v>36879</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>87</v>
       </c>
@@ -5756,7 +5757,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36892</v>
@@ -5781,7 +5782,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="50" t="s">
         <v>45</v>
@@ -5803,7 +5804,7 @@
         <v>36915</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>36923</v>
@@ -5830,7 +5831,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="50" t="s">
         <v>66</v>
@@ -5852,7 +5853,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36951</v>
@@ -5877,7 +5878,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -5902,7 +5903,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>94</v>
@@ -5924,7 +5925,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>37012</v>
@@ -5951,7 +5952,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -5976,7 +5977,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -6001,7 +6002,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -6022,7 +6023,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -6047,7 +6048,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A96,1)</f>
         <v>37165</v>
@@ -6074,7 +6075,7 @@
         <v>37165</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -6096,7 +6097,7 @@
         <v>37183</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>37196</v>
@@ -6121,7 +6122,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>99</v>
@@ -6141,7 +6142,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A99,1)</f>
         <v>37226</v>
@@ -6166,7 +6167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>101</v>
       </c>
@@ -6184,7 +6185,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>37257</v>
@@ -6205,7 +6206,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -6232,7 +6233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>53</v>
@@ -6252,7 +6253,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37316</v>
@@ -6273,7 +6274,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -6300,7 +6301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -6321,7 +6322,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -6342,7 +6343,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -6363,7 +6364,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -6384,7 +6385,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -6405,7 +6406,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -6432,7 +6433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>68</v>
@@ -6452,7 +6453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37561</v>
@@ -6473,7 +6474,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -6494,7 +6495,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="47" t="s">
         <v>106</v>
       </c>
@@ -6512,7 +6513,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37622</v>
@@ -6533,7 +6534,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -6560,7 +6561,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -6587,7 +6588,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -6608,7 +6609,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A121,1)</f>
         <v>37742</v>
@@ -6629,7 +6630,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -6650,7 +6651,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -6671,7 +6672,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" ref="A125:A209" si="1">EDATE(A124,1)</f>
         <v>37834</v>
@@ -6692,7 +6693,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6717,7 +6718,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6744,7 +6745,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37926</v>
@@ -6769,7 +6770,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6794,7 +6795,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6814,7 +6815,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>114</v>
       </c>
@@ -6832,7 +6833,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A129,1)</f>
         <v>37987</v>
@@ -6857,7 +6858,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6884,7 +6885,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>118</v>
@@ -6906,7 +6907,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>38047</v>
@@ -6931,7 +6932,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>68</v>
@@ -6951,7 +6952,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>68</v>
@@ -6971,7 +6972,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>68</v>
@@ -6991,7 +6992,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f>EDATE(A135,1)</f>
         <v>38078</v>
@@ -7018,7 +7019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>71</v>
@@ -7038,7 +7039,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>38108</v>
@@ -7063,7 +7064,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -7090,7 +7091,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>124</v>
@@ -7112,7 +7113,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="48"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>38169</v>
@@ -7139,7 +7140,7 @@
         <v>38176</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>45</v>
@@ -7161,7 +7162,7 @@
         <v>38182</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>98</v>
@@ -7181,7 +7182,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="48"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A144,1)</f>
         <v>38200</v>
@@ -7208,7 +7209,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>45</v>
@@ -7230,7 +7231,7 @@
         <v>38215</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>126</v>
@@ -7250,7 +7251,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A147,1)</f>
         <v>38231</v>
@@ -7275,7 +7276,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -7302,7 +7303,7 @@
         <v>38273</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>45</v>
@@ -7324,7 +7325,7 @@
         <v>38285</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>128</v>
@@ -7344,7 +7345,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>38292</v>
@@ -7369,7 +7370,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -7396,7 +7397,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>142</v>
@@ -7416,7 +7417,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="47" t="s">
         <v>130</v>
       </c>
@@ -7434,7 +7435,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38353</v>
@@ -7461,7 +7462,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -7488,7 +7489,7 @@
         <v>38401</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>68</v>
@@ -7508,7 +7509,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>99</v>
@@ -7528,7 +7529,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="48"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A159,1)</f>
         <v>38412</v>
@@ -7553,7 +7554,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -7580,7 +7581,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>143</v>
@@ -7600,7 +7601,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="48"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>38473</v>
@@ -7625,7 +7626,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -7650,7 +7651,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>51</v>
@@ -7672,7 +7673,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>38534</v>
@@ -7697,7 +7698,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -7722,7 +7723,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -7747,7 +7748,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -7768,7 +7769,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>38657</v>
@@ -7795,7 +7796,7 @@
         <v>38666</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>45</v>
@@ -7817,7 +7818,7 @@
         <v>38674</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>127</v>
@@ -7837,7 +7838,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="48"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A172,1)</f>
         <v>38687</v>
@@ -7864,7 +7865,7 @@
         <v>38691</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>138</v>
@@ -7884,7 +7885,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>134</v>
@@ -7904,7 +7905,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="47" t="s">
         <v>140</v>
       </c>
@@ -7922,7 +7923,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="48"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A175,1)</f>
         <v>38718</v>
@@ -7943,7 +7944,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="1"/>
         <v>38749</v>
@@ -7968,7 +7969,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>68</v>
@@ -7988,7 +7989,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>149</v>
@@ -8008,7 +8009,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>38777</v>
@@ -8035,7 +8036,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>45</v>
@@ -8057,7 +8058,7 @@
         <v>38799</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>151</v>
@@ -8077,7 +8078,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="48"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>38808</v>
@@ -8102,7 +8103,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="1"/>
         <v>38838</v>
@@ -8127,7 +8128,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -8148,7 +8149,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="1"/>
         <v>38899</v>
@@ -8173,7 +8174,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="1"/>
         <v>38930</v>
@@ -8200,7 +8201,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>160</v>
@@ -8220,7 +8221,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38961</v>
@@ -8241,7 +8242,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38991</v>
@@ -8266,7 +8267,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>39022</v>
@@ -8291,7 +8292,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="1"/>
         <v>39052</v>
@@ -8316,7 +8317,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>113</v>
@@ -8336,7 +8337,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="47" t="s">
         <v>161</v>
       </c>
@@ -8354,7 +8355,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A195,1)</f>
         <v>39083</v>
@@ -8379,7 +8380,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="1"/>
         <v>39114</v>
@@ -8404,7 +8405,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
@@ -8429,7 +8430,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -8450,7 +8451,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f t="shared" si="1"/>
         <v>39203</v>
@@ -8475,7 +8476,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f t="shared" si="1"/>
         <v>39234</v>
@@ -8500,7 +8501,7 @@
       <c r="J203" s="12"/>
       <c r="K203" s="15"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f t="shared" si="1"/>
         <v>39264</v>
@@ -8525,7 +8526,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" si="1"/>
         <v>39295</v>
@@ -8550,7 +8551,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="1"/>
         <v>39326</v>
@@ -8575,7 +8576,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>136</v>
@@ -8595,7 +8596,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>39356</v>
@@ -8616,7 +8617,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="1"/>
         <v>39387</v>
@@ -8643,7 +8644,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>135</v>
@@ -8663,7 +8664,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>39417</v>
@@ -8688,7 +8689,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="47" t="s">
         <v>171</v>
       </c>
@@ -8706,7 +8707,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>39448</v>
@@ -8731,7 +8732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>173</v>
@@ -8751,7 +8752,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39479</v>
@@ -8778,7 +8779,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>68</v>
@@ -8798,7 +8799,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>176</v>
@@ -8818,7 +8819,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>39508</v>
@@ -8843,7 +8844,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" ref="A219:A266" si="2">EDATE(A218,1)</f>
         <v>39539</v>
@@ -8868,7 +8869,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -8893,7 +8894,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -8918,7 +8919,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -8945,7 +8946,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>180</v>
@@ -8965,7 +8966,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="51"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39661</v>
@@ -8992,7 +8993,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>84</v>
@@ -9014,7 +9015,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>182</v>
@@ -9034,7 +9035,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A224,1)</f>
         <v>39692</v>
@@ -9061,7 +9062,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>83</v>
@@ -9081,7 +9082,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39722</v>
@@ -9106,7 +9107,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>39753</v>
@@ -9131,7 +9132,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="2"/>
         <v>39783</v>
@@ -9156,7 +9157,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>188</v>
@@ -9176,7 +9177,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="47" t="s">
         <v>183</v>
       </c>
@@ -9194,7 +9195,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A231,1)</f>
         <v>39814</v>
@@ -9219,7 +9220,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="2"/>
         <v>39845</v>
@@ -9244,7 +9245,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -9271,7 +9272,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>94</v>
@@ -9291,7 +9292,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>45</v>
@@ -9313,7 +9314,7 @@
         <v>39903</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>205</v>
@@ -9333,7 +9334,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="48"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39904</v>
@@ -9358,7 +9359,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -9383,7 +9384,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>61</v>
@@ -9403,7 +9404,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A241,1)</f>
         <v>39965</v>
@@ -9430,7 +9431,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>204</v>
@@ -9450,7 +9451,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="48"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39995</v>
@@ -9475,7 +9476,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -9502,7 +9503,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>198</v>
@@ -9522,7 +9523,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>40057</v>
@@ -9547,7 +9548,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
@@ -9572,7 +9573,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="2"/>
         <v>40118</v>
@@ -9597,7 +9598,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="2"/>
         <v>40148</v>
@@ -9624,7 +9625,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>203</v>
@@ -9644,7 +9645,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="47" t="s">
         <v>206</v>
       </c>
@@ -9662,7 +9663,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>40179</v>
@@ -9687,7 +9688,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -9711,7 +9712,7 @@
         <v>40183</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>40210</v>
@@ -9738,7 +9739,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>210</v>
@@ -9758,7 +9759,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>51</v>
@@ -9780,7 +9781,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>40238</v>
@@ -9805,7 +9806,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>213</v>
@@ -9825,7 +9826,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>40269</v>
@@ -9850,7 +9851,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -9875,7 +9876,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>61</v>
@@ -9897,7 +9898,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>40330</v>
@@ -9922,7 +9923,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -9947,7 +9948,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -9972,7 +9973,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>45</v>
@@ -9994,7 +9995,7 @@
         <v>40393</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40422</v>
@@ -10021,7 +10022,7 @@
         <v>40441</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>220</v>
@@ -10041,7 +10042,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="48"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>45</v>
@@ -10063,7 +10064,7 @@
         <v>40437</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>40452</v>
@@ -10084,7 +10085,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>40483</v>
@@ -10109,7 +10110,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>45</v>
@@ -10131,7 +10132,7 @@
         <v>40497</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>72</v>
@@ -10151,7 +10152,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>40513</v>
@@ -10176,7 +10177,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="47" t="s">
         <v>223</v>
       </c>
@@ -10194,7 +10195,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>40544</v>
@@ -10219,7 +10220,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -10241,7 +10242,7 @@
         <v>40571</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>40575</v>
@@ -10268,7 +10269,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>68</v>
@@ -10288,7 +10289,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>226</v>
@@ -10308,7 +10309,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>40603</v>
@@ -10333,7 +10334,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>51</v>
@@ -10355,7 +10356,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>40634</v>
@@ -10380,7 +10381,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -10402,7 +10403,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>40664</v>
@@ -10427,7 +10428,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>45</v>
@@ -10449,7 +10450,7 @@
         <v>40676</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>40695</v>
@@ -10474,7 +10475,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>51</v>
@@ -10496,7 +10497,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>40725</v>
@@ -10521,7 +10522,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10543,7 +10544,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A290,1)</f>
         <v>40756</v>
@@ -10568,7 +10569,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>45</v>
@@ -10590,7 +10591,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>40787</v>
@@ -10615,7 +10616,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>51</v>
@@ -10635,7 +10636,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f>EDATE(A294,1)</f>
         <v>40817</v>
@@ -10660,7 +10661,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>61</v>
@@ -10682,7 +10683,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>40848</v>
@@ -10707,7 +10708,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -10729,7 +10730,7 @@
         <v>40868</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>239</v>
@@ -10749,7 +10750,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f>EDATE(A298,1)</f>
         <v>40878</v>
@@ -10774,7 +10775,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -10796,7 +10797,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="47" t="s">
         <v>241</v>
       </c>
@@ -10814,7 +10815,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="48"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A301,1)</f>
         <v>40909</v>
@@ -10839,7 +10840,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>251</v>
@@ -10859,7 +10860,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40940</v>
@@ -10886,7 +10887,7 @@
         <v>40596</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>68</v>
@@ -10906,7 +10907,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>252</v>
@@ -10926,7 +10927,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="48"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>61</v>
@@ -10946,7 +10947,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="48"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A306,1)</f>
         <v>40969</v>
@@ -10971,7 +10972,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f t="shared" ref="A311:A331" si="3">EDATE(A310,1)</f>
         <v>41000</v>
@@ -10996,7 +10997,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="3"/>
         <v>41030</v>
@@ -11021,7 +11022,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -11046,7 +11047,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -11071,7 +11072,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -11092,7 +11093,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A315,1)</f>
         <v>41153</v>
@@ -11117,7 +11118,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>84</v>
@@ -11137,7 +11138,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>41183</v>
@@ -11162,7 +11163,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -11187,7 +11188,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -11212,7 +11213,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>258</v>
@@ -11234,7 +11235,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>260</v>
@@ -11254,7 +11255,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="47" t="s">
         <v>242</v>
       </c>
@@ -11272,7 +11273,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A320,1)</f>
         <v>41275</v>
@@ -11297,7 +11298,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -11324,7 +11325,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>156</v>
@@ -11346,7 +11347,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>68</v>
@@ -11366,7 +11367,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>265</v>
@@ -11386,7 +11387,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>41334</v>
@@ -11411,7 +11412,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -11432,7 +11433,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -11457,7 +11458,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A331,1)</f>
         <v>41426</v>
@@ -11482,7 +11483,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" ref="A333:A363" si="4">EDATE(A332,1)</f>
         <v>41456</v>
@@ -11507,7 +11508,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="4"/>
         <v>41487</v>
@@ -11532,7 +11533,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -11557,7 +11558,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="4"/>
         <v>41548</v>
@@ -11582,7 +11583,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f t="shared" si="4"/>
         <v>41579</v>
@@ -11607,7 +11608,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="4"/>
         <v>41609</v>
@@ -11632,7 +11633,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>113</v>
@@ -11652,7 +11653,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="47" t="s">
         <v>243</v>
       </c>
@@ -11670,7 +11671,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A338,1)</f>
         <v>41640</v>
@@ -11695,7 +11696,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>84</v>
@@ -11715,7 +11716,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f>EDATE(A341,1)</f>
         <v>41671</v>
@@ -11740,7 +11741,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" si="4"/>
         <v>41699</v>
@@ -11765,7 +11766,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="4"/>
         <v>41730</v>
@@ -11790,7 +11791,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f t="shared" si="4"/>
         <v>41760</v>
@@ -11815,7 +11816,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="4"/>
         <v>41791</v>
@@ -11840,7 +11841,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -11865,7 +11866,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -11890,7 +11891,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>278</v>
@@ -11910,7 +11911,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A349,1)</f>
         <v>41883</v>
@@ -11937,7 +11938,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>95</v>
@@ -11957,7 +11958,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>84</v>
@@ -11977,7 +11978,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>41913</v>
@@ -12002,7 +12003,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" si="4"/>
         <v>41944</v>
@@ -12029,7 +12030,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="4"/>
         <v>41974</v>
@@ -12050,7 +12051,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="47" t="s">
         <v>244</v>
       </c>
@@ -12068,7 +12069,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>42005</v>
@@ -12093,7 +12094,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>90</v>
@@ -12113,7 +12114,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>42036</v>
@@ -12140,7 +12141,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>283</v>
@@ -12160,7 +12161,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A360,1)</f>
         <v>42064</v>
@@ -12185,7 +12186,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f t="shared" si="4"/>
         <v>42095</v>
@@ -12210,7 +12211,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f>EDATE(A363,1)</f>
         <v>42125</v>
@@ -12235,7 +12236,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" ref="A365:A419" si="5">EDATE(A364,1)</f>
         <v>42156</v>
@@ -12260,7 +12261,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f t="shared" si="5"/>
         <v>42186</v>
@@ -12285,7 +12286,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f t="shared" si="5"/>
         <v>42217</v>
@@ -12310,7 +12311,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f t="shared" si="5"/>
         <v>42248</v>
@@ -12335,7 +12336,7 @@
         <v>42272</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>288</v>
@@ -12355,7 +12356,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="48"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>42278</v>
@@ -12382,7 +12383,7 @@
         <v>42277</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>45</v>
@@ -12404,7 +12405,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>289</v>
@@ -12424,7 +12425,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="48"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f>EDATE(A370,1)</f>
         <v>42309</v>
@@ -12449,7 +12450,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="5"/>
         <v>42339</v>
@@ -12476,7 +12477,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>292</v>
@@ -12496,7 +12497,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="47" t="s">
         <v>245</v>
       </c>
@@ -12514,7 +12515,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>42370</v>
@@ -12539,7 +12540,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>45</v>
@@ -12561,7 +12562,7 @@
         <v>42398</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>42401</v>
@@ -12586,7 +12587,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>49</v>
@@ -12608,7 +12609,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>42430</v>
@@ -12633,7 +12634,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="5"/>
         <v>42461</v>
@@ -12658,7 +12659,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="5"/>
         <v>42491</v>
@@ -12683,7 +12684,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="5"/>
         <v>42522</v>
@@ -12708,7 +12709,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="5"/>
         <v>42552</v>
@@ -12733,7 +12734,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="5"/>
         <v>42583</v>
@@ -12758,7 +12759,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="5"/>
         <v>42614</v>
@@ -12783,7 +12784,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="5"/>
         <v>42644</v>
@@ -12808,7 +12809,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="5"/>
         <v>42675</v>
@@ -12829,7 +12830,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="5"/>
         <v>42705</v>
@@ -12854,7 +12855,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>169</v>
@@ -12874,7 +12875,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="47" t="s">
         <v>246</v>
       </c>
@@ -12892,7 +12893,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>42736</v>
@@ -12917,7 +12918,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f t="shared" si="5"/>
         <v>42767</v>
@@ -12942,7 +12943,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>84</v>
@@ -12964,7 +12965,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A394,1)</f>
         <v>42795</v>
@@ -12989,7 +12990,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f t="shared" si="5"/>
         <v>42826</v>
@@ -13010,7 +13011,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="5"/>
         <v>42856</v>
@@ -13035,7 +13036,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" si="5"/>
         <v>42887</v>
@@ -13060,7 +13061,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>51</v>
@@ -13082,7 +13083,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>42917</v>
@@ -13107,7 +13108,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" si="5"/>
         <v>42948</v>
@@ -13132,7 +13133,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="5"/>
         <v>42979</v>
@@ -13159,7 +13160,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>83</v>
@@ -13179,7 +13180,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>43009</v>
@@ -13206,7 +13207,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>256</v>
@@ -13226,7 +13227,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>43040</v>
@@ -13247,7 +13248,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -13274,7 +13275,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>156</v>
@@ -13294,7 +13295,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="47" t="s">
         <v>247</v>
       </c>
@@ -13309,7 +13310,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A408,1)</f>
         <v>43101</v>
@@ -13330,7 +13331,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f t="shared" si="5"/>
         <v>43132</v>
@@ -13351,7 +13352,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f t="shared" si="5"/>
         <v>43160</v>
@@ -13372,7 +13373,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="5"/>
         <v>43191</v>
@@ -13393,7 +13394,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="5"/>
         <v>43221</v>
@@ -13414,7 +13415,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" si="5"/>
         <v>43252</v>
@@ -13435,7 +13436,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="5"/>
         <v>43282</v>
@@ -13456,7 +13457,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f t="shared" si="5"/>
         <v>43313</v>
@@ -13483,7 +13484,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f t="shared" si="5"/>
         <v>43344</v>
@@ -13504,7 +13505,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A419,1)</f>
         <v>43374</v>
@@ -13525,7 +13526,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" ref="A421:A482" si="6">EDATE(A420,1)</f>
         <v>43405</v>
@@ -13546,7 +13547,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="6"/>
         <v>43435</v>
@@ -13571,7 +13572,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>77</v>
@@ -13593,7 +13594,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="47" t="s">
         <v>248</v>
       </c>
@@ -13611,7 +13612,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A422,1)</f>
         <v>43466</v>
@@ -13638,7 +13639,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="6"/>
         <v>43497</v>
@@ -13665,7 +13666,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>68</v>
@@ -13685,7 +13686,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43525</v>
@@ -13706,7 +13707,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="6"/>
         <v>43556</v>
@@ -13727,7 +13728,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f t="shared" si="6"/>
         <v>43586</v>
@@ -13748,7 +13749,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="6"/>
         <v>43617</v>
@@ -13769,7 +13770,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="6"/>
         <v>43647</v>
@@ -13790,7 +13791,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="6"/>
         <v>43678</v>
@@ -13817,7 +13818,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f t="shared" si="6"/>
         <v>43709</v>
@@ -13838,7 +13839,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="6"/>
         <v>43739</v>
@@ -13859,7 +13860,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="6"/>
         <v>43770</v>
@@ -13886,7 +13887,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="6"/>
         <v>43800</v>
@@ -13907,7 +13908,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="47" t="s">
         <v>249</v>
       </c>
@@ -13925,7 +13926,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>43831</v>
@@ -13946,7 +13947,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f t="shared" si="6"/>
         <v>43862</v>
@@ -13971,7 +13972,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>317</v>
@@ -13991,7 +13992,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>43891</v>
@@ -14012,7 +14013,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="6"/>
         <v>43922</v>
@@ -14033,7 +14034,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="6"/>
         <v>43952</v>
@@ -14054,7 +14055,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" si="6"/>
         <v>43983</v>
@@ -14075,7 +14076,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="6"/>
         <v>44013</v>
@@ -14096,7 +14097,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="6"/>
         <v>44044</v>
@@ -14117,7 +14118,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f t="shared" si="6"/>
         <v>44075</v>
@@ -14138,7 +14139,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="6"/>
         <v>44105</v>
@@ -14159,7 +14160,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="6"/>
         <v>44136</v>
@@ -14184,7 +14185,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>66</v>
@@ -14206,7 +14207,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f>EDATE(A450,1)</f>
         <v>44166</v>
@@ -14231,7 +14232,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="47" t="s">
         <v>322</v>
       </c>
@@ -14249,7 +14250,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>44197</v>
@@ -14270,7 +14271,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <f t="shared" si="6"/>
         <v>44228</v>
@@ -14291,7 +14292,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f t="shared" si="6"/>
         <v>44256</v>
@@ -14312,7 +14313,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f t="shared" si="6"/>
         <v>44287</v>
@@ -14333,7 +14334,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="6"/>
         <v>44317</v>
@@ -14354,7 +14355,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="6"/>
         <v>44348</v>
@@ -14375,7 +14376,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="6"/>
         <v>44378</v>
@@ -14396,7 +14397,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <f t="shared" si="6"/>
         <v>44409</v>
@@ -14417,7 +14418,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f t="shared" si="6"/>
         <v>44440</v>
@@ -14438,7 +14439,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="6"/>
         <v>44470</v>
@@ -14459,7 +14460,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="6"/>
         <v>44501</v>
@@ -14480,7 +14481,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f t="shared" si="6"/>
         <v>44531</v>
@@ -14505,7 +14506,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="47" t="s">
         <v>323</v>
       </c>
@@ -14523,7 +14524,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f>EDATE(A465,1)</f>
         <v>44562</v>
@@ -14544,7 +14545,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f t="shared" si="6"/>
         <v>44593</v>
@@ -14565,7 +14566,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="6"/>
         <v>44621</v>
@@ -14586,7 +14587,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="6"/>
         <v>44652</v>
@@ -14613,7 +14614,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f t="shared" si="6"/>
         <v>44682</v>
@@ -14634,7 +14635,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f t="shared" si="6"/>
         <v>44713</v>
@@ -14655,7 +14656,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f t="shared" si="6"/>
         <v>44743</v>
@@ -14682,7 +14683,7 @@
         <v>44750</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" si="6"/>
         <v>44774</v>
@@ -14707,7 +14708,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>336</v>
@@ -14729,7 +14730,7 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f>EDATE(A474,1)</f>
         <v>44805</v>
@@ -14756,7 +14757,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f t="shared" si="6"/>
         <v>44835</v>
@@ -14781,7 +14782,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>68</v>
@@ -14801,7 +14802,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>59</v>
@@ -14823,7 +14824,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>336</v>
@@ -14845,7 +14846,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f>EDATE(A477,1)</f>
         <v>44866</v>
@@ -14866,7 +14867,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f t="shared" si="6"/>
         <v>44896</v>
@@ -14893,7 +14894,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>137</v>
@@ -14913,7 +14914,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="47" t="s">
         <v>325</v>
       </c>
@@ -14931,7 +14932,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <f>EDATE(A482,1)</f>
         <v>44927</v>
@@ -14956,7 +14957,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44958</v>
       </c>
@@ -14982,7 +14983,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>46</v>
@@ -15004,7 +15005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>45</v>
@@ -15026,7 +15027,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44986</v>
       </c>
@@ -15050,7 +15051,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>45017</v>
       </c>
@@ -15076,7 +15077,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>45047</v>
       </c>
@@ -15102,7 +15103,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>45</v>
@@ -15124,7 +15125,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>45078</v>
       </c>
@@ -15150,7 +15151,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>45</v>
@@ -15172,7 +15173,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>51</v>
@@ -15194,7 +15195,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>45108</v>
       </c>
@@ -15220,7 +15221,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>45139</v>
       </c>
@@ -15248,7 +15249,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>45170</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>45</v>
@@ -15296,7 +15297,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>45200</v>
       </c>
@@ -15322,7 +15323,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>45</v>
@@ -15344,7 +15345,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>45231</v>
       </c>
@@ -15364,7 +15365,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>45261</v>
       </c>
@@ -15388,7 +15389,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="47" t="s">
         <v>340</v>
       </c>
@@ -15406,20 +15407,22 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>45292</v>
       </c>
       <c r="B505" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C505" s="13"/>
+      <c r="C505" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D505" s="39"/>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G505" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H505" s="39">
         <v>2</v>
@@ -15430,7 +15433,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>45</v>
@@ -15452,7 +15455,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>45323</v>
       </c>
@@ -15470,7 +15473,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>45352</v>
       </c>
@@ -15488,7 +15491,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>45383</v>
       </c>
@@ -15506,7 +15509,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>45413</v>
       </c>
@@ -15524,7 +15527,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>45444</v>
       </c>
@@ -15542,7 +15545,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>45474</v>
       </c>
@@ -15560,7 +15563,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>45505</v>
       </c>
@@ -15578,7 +15581,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>45536</v>
       </c>
@@ -15596,7 +15599,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>45566</v>
       </c>
@@ -15614,7 +15617,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>45597</v>
       </c>
@@ -15632,7 +15635,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>45627</v>
       </c>
@@ -15650,7 +15653,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>45658</v>
       </c>
@@ -15668,7 +15671,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>45689</v>
       </c>
@@ -15686,7 +15689,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>45717</v>
       </c>
@@ -15704,7 +15707,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>45748</v>
       </c>
@@ -15722,7 +15725,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>45778</v>
       </c>
@@ -15740,7 +15743,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>45809</v>
       </c>
@@ -15758,7 +15761,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>45839</v>
       </c>
@@ -15776,7 +15779,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>45870</v>
       </c>
@@ -15794,7 +15797,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>45901</v>
       </c>
@@ -15812,7 +15815,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>45931</v>
       </c>
@@ -15830,7 +15833,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>45962</v>
       </c>
@@ -15848,7 +15851,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>45992</v>
       </c>
@@ -15866,7 +15869,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>46023</v>
       </c>
@@ -15884,7 +15887,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>46054</v>
       </c>
@@ -15902,7 +15905,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>46082</v>
       </c>
@@ -15920,7 +15923,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>46113</v>
       </c>
@@ -15938,7 +15941,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>46143</v>
       </c>
@@ -15956,7 +15959,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>46174</v>
       </c>
@@ -15974,7 +15977,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>46204</v>
       </c>
@@ -15992,7 +15995,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>46235</v>
       </c>
@@ -16010,7 +16013,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>46266</v>
       </c>
@@ -16028,7 +16031,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>46296</v>
       </c>
@@ -16046,7 +16049,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>46327</v>
       </c>
@@ -16064,7 +16067,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>46357</v>
       </c>
@@ -16082,7 +16085,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>46388</v>
       </c>
@@ -16100,7 +16103,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>46419</v>
       </c>
@@ -16118,7 +16121,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>46447</v>
       </c>
@@ -16136,7 +16139,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>46478</v>
       </c>
@@ -16154,7 +16157,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>46508</v>
       </c>
@@ -16172,7 +16175,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>46539</v>
       </c>
@@ -16190,7 +16193,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>46569</v>
       </c>
@@ -16208,7 +16211,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>46600</v>
       </c>
@@ -16226,7 +16229,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>46631</v>
       </c>
@@ -16244,7 +16247,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>46661</v>
       </c>
@@ -16262,7 +16265,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>46692</v>
       </c>
@@ -16280,7 +16283,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>46722</v>
       </c>
@@ -16298,7 +16301,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>46753</v>
       </c>
@@ -16316,7 +16319,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>46784</v>
       </c>
@@ -16334,7 +16337,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>46813</v>
       </c>
@@ -16352,7 +16355,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>46844</v>
       </c>
@@ -16370,7 +16373,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>46874</v>
       </c>
@@ -16388,7 +16391,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>46905</v>
       </c>
@@ -16406,7 +16409,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>46935</v>
       </c>
@@ -16424,7 +16427,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>46966</v>
       </c>
@@ -16442,7 +16445,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>46997</v>
       </c>
@@ -16460,7 +16463,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>47027</v>
       </c>
@@ -16478,7 +16481,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>47058</v>
       </c>
@@ -16496,7 +16499,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>47088</v>
       </c>
@@ -16514,7 +16517,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>47119</v>
       </c>
@@ -16532,7 +16535,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>47150</v>
       </c>
@@ -16550,7 +16553,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>47178</v>
       </c>
@@ -16568,7 +16571,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>47209</v>
       </c>
@@ -16586,7 +16589,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>47239</v>
       </c>
@@ -16604,7 +16607,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>47270</v>
       </c>
@@ -16622,7 +16625,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>47300</v>
       </c>
@@ -16640,7 +16643,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>47331</v>
       </c>
@@ -16658,7 +16661,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>47362</v>
       </c>
@@ -16676,7 +16679,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>47392</v>
       </c>
@@ -16694,7 +16697,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>47423</v>
       </c>
@@ -16712,7 +16715,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>47453</v>
       </c>
@@ -16730,7 +16733,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16746,7 +16749,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16762,7 +16765,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16778,7 +16781,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16794,7 +16797,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16810,7 +16813,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16826,7 +16829,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16842,7 +16845,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16858,7 +16861,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16874,7 +16877,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16890,7 +16893,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16906,7 +16909,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16922,7 +16925,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16938,7 +16941,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16954,7 +16957,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16970,7 +16973,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16986,7 +16989,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17002,7 +17005,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17018,7 +17021,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17034,7 +17037,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17050,7 +17053,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17066,7 +17069,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17082,7 +17085,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17098,7 +17101,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17114,7 +17117,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17130,7 +17133,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17146,7 +17149,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17162,7 +17165,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="52"/>
       <c r="B605" s="15"/>
       <c r="C605" s="41"/>
@@ -17193,10 +17196,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17219,7 +17222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17227,21 +17230,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -17254,7 +17257,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17283,7 +17286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -17309,17 +17312,17 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17340,7 +17343,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17367,7 +17370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17393,7 +17396,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17419,7 +17422,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17445,7 +17448,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17471,7 +17474,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17497,7 +17500,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17523,7 +17526,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17549,7 +17552,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17569,7 +17572,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17589,7 +17592,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17609,7 +17612,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17630,7 +17633,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17651,7 +17654,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17672,7 +17675,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17693,7 +17696,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17714,7 +17717,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17735,7 +17738,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17756,7 +17759,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17777,7 +17780,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17798,7 +17801,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17819,7 +17822,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17840,7 +17843,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17861,7 +17864,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17882,7 +17885,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17903,7 +17906,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17924,7 +17927,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17945,7 +17948,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17966,7 +17969,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17987,7 +17990,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18008,7 +18011,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18029,7 +18032,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18038,7 +18041,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18047,7 +18050,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18056,7 +18059,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18065,7 +18068,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18074,7 +18077,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18083,7 +18086,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18092,7 +18095,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18101,7 +18104,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18110,7 +18113,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18119,7 +18122,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18128,7 +18131,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18137,7 +18140,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18146,7 +18149,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18155,7 +18158,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18164,7 +18167,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18173,7 +18176,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18182,7 +18185,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18191,7 +18194,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18200,7 +18203,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18209,7 +18212,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18218,7 +18221,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18227,7 +18230,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18236,7 +18239,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18245,7 +18248,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18254,7 +18257,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18263,7 +18266,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18272,7 +18275,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18281,7 +18284,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18290,7 +18293,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
